--- a/puntajes_I.E.D. GERMÁN VARGAS CANTILLO.xlsx
+++ b/puntajes_I.E.D. GERMÁN VARGAS CANTILLO.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">PUNT_INGLES</t>
   </si>
@@ -33,6 +33,30 @@
   </si>
   <si>
     <t xml:space="preserve">anno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20224</t>
   </si>
 </sst>
 </file>
@@ -387,6 +411,190 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.580118231871416</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.662182702606799</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.197435872283986</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.580055201794936</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.626663972406649</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.189234393770375</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.665790928107443</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.673954640202497</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.658527350237695</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.652508764251948</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.684904529089117</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.667344367650093</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.679211515958017</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.752438171964393</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.704808118809078</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.680656520337941</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.703394916032865</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.707931130568527</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.733530459943224</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.765028054660648</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.720420186842568</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.736529564848269</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.736092012106156</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.73905691656278</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.695613509580673</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.719358733300511</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.706520143068675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.709106184409968</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.725890402607448</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.713710761518499</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.672230939908778</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.695073585543965</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.655085660754569</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.673462481001246</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.727203793947279</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.686515961819228</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.696695863693876</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.680398749386295</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.664501687680721</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.661505967723753</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.716338672460317</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.681917776572856</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
